--- a/Section1/Flowcharts.xlsx
+++ b/Section1/Flowcharts.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DotNet2018\Section1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DotNet2018\Repo\SoftwareGuildCSharp\Section1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65724252-5C40-4925-A2EF-5FB908663F99}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1670D6B9-3F44-4548-9827-D3ACDFEA1EB7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7605" activeTab="1" xr2:uid="{894CEB66-AAE7-4334-BDB5-E0B71A4C4AFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7605" xr2:uid="{894CEB66-AAE7-4334-BDB5-E0B71A4C4AFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Factorizor" sheetId="4" r:id="rId2"/>
-    <sheet name="Guessing Game" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Guessing Game (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Factorizor" sheetId="4" r:id="rId3"/>
+    <sheet name="Guessing Game" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Decisions</t>
   </si>
@@ -140,15 +141,43 @@
   <si>
     <t>Display Results</t>
   </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>prompt for Name</t>
+  </si>
+  <si>
+    <t>prompt for level</t>
+  </si>
+  <si>
+    <t>save to name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>save to level</t>
+  </si>
+  <si>
+    <t>level designates the top number for the random range</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,8 +203,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,23 +227,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58ABA09-FEF2-443B-A9F7-DF5161897005}"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74C5887-32C5-4909-8555-B820EB85B7FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -221,7 +251,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="704850"/>
+          <a:off x="1819275" y="6086475"/>
           <a:ext cx="1504950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -250,23 +280,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Flowchart: Decision 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1A0CB2-8C51-47DF-9295-C918A4C342A7}"/>
+        <xdr:cNvPr id="3" name="Flowchart: Decision 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792E04FC-2303-4800-841C-5C5684EDD21E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -274,7 +304,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="904875"/>
+          <a:off x="409575" y="2828925"/>
           <a:ext cx="1447800" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -316,659 +346,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CE12BF-E50F-430F-BE6D-5B68A3BAE233}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="2095500"/>
-          <a:ext cx="1504950" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>466320</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>75840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>258480</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>169860</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="31" name="Ink 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C897DFB4-5B54-45DF-B019-0D98CD7700C1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1685520" y="1599840"/>
-            <a:ext cx="401760" cy="1046520"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="31" name="Ink 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C897DFB4-5B54-45DF-B019-0D98CD7700C1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1676880" y="1590840"/>
-              <a:ext cx="419400" cy="1064160"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>218880</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219240</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="32" name="Ink 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970650AA-FE95-42D7-9F8C-C1A55139791B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3876480" y="1295280"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="32" name="Ink 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970650AA-FE95-42D7-9F8C-C1A55139791B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3867840" y="1286280"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="33" name="Ink 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8630571-6093-4B45-AA8D-AD69D68ED30F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="2314080" y="2400120"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="Ink 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8630571-6093-4B45-AA8D-AD69D68ED30F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2305440" y="2391120"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Connector: Elbow 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7981C92-875B-4960-94C2-1738A40C4AAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1419225" y="2905125"/>
-          <a:ext cx="1038225" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Connector: Elbow 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A67DCA-AEB9-4271-9ECF-99A507D99739}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1419225" y="3362325"/>
-          <a:ext cx="1047750" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Flowchart: Alternate Process 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04940753-F106-4FED-8FCE-9EBD51F4E633}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4857750" y="552450"/>
-          <a:ext cx="1133475" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Flowchart: Data 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DAF429-11DD-4814-9167-7F1ABAD2B7A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4857750" y="1581150"/>
-          <a:ext cx="1524000" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartInputOutput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Flowchart: Process 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3670CFD2-C5EF-4783-924C-A86A8FD89424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="2990850"/>
-          <a:ext cx="1609725" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flowchart: Decision 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9AE247-D759-4A29-9098-1193E3D9ADD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="333375" y="1514475"/>
-          <a:ext cx="1447800" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F2573D-57BD-4A9A-BD9F-A0EB18047E34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32E75AA-A2FF-4D0B-ABCC-03B155E174E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -976,1149 +370,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1076325" y="1076325"/>
-          <a:ext cx="9526" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>218880</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219240</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="6" name="Ink 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8FCF54-1D53-4D86-8D8D-F35017DBC9E1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3876480" y="1295280"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="Ink 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8FCF54-1D53-4D86-8D8D-F35017DBC9E1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3867840" y="1286280"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="7" name="Ink 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8991E8-5913-4502-899D-873D3E639A55}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="2314080" y="2400120"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="Ink 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8991E8-5913-4502-899D-873D3E639A55}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2305440" y="2391120"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Flowchart: Alternate Process 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7018C6E8-31B7-4678-B4E5-5354D65EDACC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="238125" y="6800850"/>
-          <a:ext cx="1133475" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Flowchart: Data 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF4100C-1AB0-42DE-9303-9562633B90FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314325" y="3857626"/>
-          <a:ext cx="1524000" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartInputOutput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Flowchart: Process 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198F53CB-AE0A-45D9-BA93-1C6D79258AD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571501" y="161925"/>
-          <a:ext cx="1543050" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7489979-310A-41DE-B069-B588426BD0AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1038225" y="2066925"/>
-          <a:ext cx="9526" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8EB498-4512-4D47-A0EC-4505933AA973}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1038225" y="4314825"/>
-          <a:ext cx="0" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Flowchart: Decision 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E09FAC2-B061-4554-AF7C-1F438A8A798E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="4695825"/>
-          <a:ext cx="1333499" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C860BE-8319-44CE-8F5D-39093B343D8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1009650" y="5210175"/>
-          <a:ext cx="9526" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B544761-5129-4623-8594-7E7A9278CAC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1590675" y="4981575"/>
-          <a:ext cx="1000125" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28578</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557D5B3A-8958-493A-9C32-2F3C13BDAD2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2486025" y="4133850"/>
-          <a:ext cx="9525" cy="847728"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1ADAC1-7320-4D2A-910B-4E02841D7303}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1876426" y="3048001"/>
-          <a:ext cx="609599" cy="19049"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BBDB31-B403-4722-970A-339911CE24D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="952500" y="6381750"/>
-          <a:ext cx="9526" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Flowchart: Process 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2FAF52-9DFA-406D-8553-7D363DB4E21E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="4562475"/>
-          <a:ext cx="1543050" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Flowchart: Data 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D468455-6F53-474D-816E-04B10E7AE223}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381000" y="5734050"/>
-          <a:ext cx="1066800" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartInputOutput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6110C2C-32CD-4E0D-9F92-5DDE1C9509F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="857250" y="6286500"/>
-          <a:ext cx="9526" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80700E41-6ED4-4EC3-B482-62780CD7F781}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1819275" y="6086475"/>
-          <a:ext cx="1504950" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flowchart: Decision 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D311B8-AC6A-46F3-AED7-CFB8286CFEC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="409575" y="2828925"/>
-          <a:ext cx="1447800" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F89310D-52C7-426E-AFCE-0638C24247C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1076325" y="1076325"/>
-          <a:ext cx="9526" cy="466725"/>
+          <a:off x="1066800" y="1076325"/>
+          <a:ext cx="19051" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2157,14 +410,14 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>81164</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE8D9B-2CD6-4FE8-A9ED-19EEAAA350D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800BC1BD-3BE4-4188-AAD8-4A9857DEF865}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2177,7 +430,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -2222,14 +475,14 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEBA31A-7283-4DD1-9397-8D8C82C0AE7A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC4A1FF-ADAD-4BF7-8BC3-8EDF1E3BAD13}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2242,7 +495,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -2287,14 +540,14 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Ink 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65663BAD-C825-454D-9710-34AECE36B33B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D732AA6A-B85F-49E2-B6B9-720B41FF3745}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2307,7 +560,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Ink 6">
@@ -2357,7 +610,7 @@
         <xdr:cNvPr id="8" name="Connector: Elbow 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D94BC40-626E-4A19-AC88-5BD7470F5239}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1767F564-0023-4742-8B5D-99081C29D9A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +666,7 @@
         <xdr:cNvPr id="9" name="Connector: Elbow 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1614D3C-0696-447D-9A49-FE84EF9E3E5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94293873-905C-4ECE-BEF9-65983406143B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +722,7 @@
         <xdr:cNvPr id="10" name="Flowchart: Alternate Process 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091E580A-C490-4F4D-B731-0DFD6A0F8B19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F583A7-0F3D-4528-9334-29205B159228}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +788,7 @@
         <xdr:cNvPr id="11" name="Flowchart: Data 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A71DFE-21EA-4E9D-AE22-46F808B7B798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF64681-CAE7-4C37-878B-3E364050CEB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +861,7 @@
         <xdr:cNvPr id="12" name="Flowchart: Process 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EEA228-D446-4981-A608-A4B29DA0230B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7F32F2-5E1F-45AF-8864-D267CB1C8CDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,22 +912,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Flowchart: Process 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652B9D43-084F-455A-BD6E-6D25A94D3457}"/>
+        <xdr:cNvPr id="13" name="Flowchart: Process 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E540B64-0E81-4FCB-B03C-0F2B8176E542}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,8 +935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="1571625"/>
-          <a:ext cx="1543050" cy="657225"/>
+          <a:off x="457200" y="2076450"/>
+          <a:ext cx="1543050" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2726,30 +979,30 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4B793-9027-444D-A025-D9AD6E840DF2}"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CC2AD0-2DFB-47D7-9487-3C2884B9C7A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1114425" y="2266950"/>
-          <a:ext cx="9526" cy="466725"/>
+        <a:xfrm>
+          <a:off x="1114425" y="2438400"/>
+          <a:ext cx="0" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2790,10 +1043,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD007F5C-10BB-4753-A75D-268060CE2BF7}"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3D965C-3151-4B4B-81B9-8503AB988BA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,10 +1096,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7074B93-E571-4F77-8A74-3FA9D9C779AD}"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17572BA2-D5FE-4DF9-8C96-F52EA6040F35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,10 +1149,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Flowchart: Decision 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B4EC21-B114-44ED-BDAB-72A2878F92EC}"/>
+        <xdr:cNvPr id="17" name="Flowchart: Decision 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D10030-377B-4144-8F48-8C94287CE56D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,10 +1215,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50685E9-44B7-42D7-B20C-9FED1C74C921}"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3AE945-E93A-4386-BF6E-1B7942D0F223}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,10 +1268,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Flowchart: Decision 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E101A882-CCDD-4216-8C9A-FF29F621FA15}"/>
+        <xdr:cNvPr id="19" name="Flowchart: Decision 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9917289-B198-4A05-9047-56B6D89EFC0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,10 +1334,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A18900D-E45E-4CC9-A5AD-C8EAFFB6DBA8}"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EAE6CE2-F82F-4E91-8952-16FF62F13D3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3134,10 +1387,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC959E1-101C-4805-81D1-31A72FF6FB18}"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD1E33B-0654-4CB1-9438-C2AD01EB37F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,10 +1440,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF998312-2854-467B-AA45-43591A6A3362}"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75860DD3-5BBC-4E68-9E30-851232F46F61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3240,10 +1493,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Flowchart: Decision 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5E2E5A-3E93-4548-AD6D-1564153B3319}"/>
+        <xdr:cNvPr id="23" name="Flowchart: Decision 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A12523-654A-4C53-A9CD-082FEEBE0D06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,10 +1575,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Flowchart: Decision 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51B687E-DDDD-4428-B2BB-BB77FD00B460}"/>
+        <xdr:cNvPr id="24" name="Flowchart: Decision 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27240953-CD08-449D-9964-AA10546D24DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,10 +1641,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Flowchart: Data 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79897340-845E-4690-A3E4-FF0D92AB81BB}"/>
+        <xdr:cNvPr id="25" name="Flowchart: Data 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6435C7-007F-4F94-9A23-7125BCBCDD93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,10 +1714,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Flowchart: Data 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0026A48-182D-469A-A3E4-542527BCC280}"/>
+        <xdr:cNvPr id="26" name="Flowchart: Data 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FE66E4-F581-467A-AED4-31B118C8361F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3534,15 +1787,15 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90035AA3-963F-42E6-9347-68E045DFC7C0}"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DCB1E4-3371-4C83-A725-9C6287F12282}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="0"/>
+          <a:stCxn id="23" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3589,10 +1842,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED70FE8-C652-4E1F-9171-C6231BDB1443}"/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E58EE5-FA69-45CF-816D-CA79701D0285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,10 +1895,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6FDE69-286F-473B-9899-27BE7655D469}"/>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBC3AF5-A04F-4FF6-8918-0C83D41264C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3695,10 +1948,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E224D702-3A55-4E2E-B9DB-449CF7CA1126}"/>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3D48B6-5824-4D6A-B1B9-25013823CA79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3748,10 +2001,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Flowchart: Data 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8888B7-B534-4970-9603-E9D483D9C763}"/>
+        <xdr:cNvPr id="31" name="Flowchart: Data 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6333161-4B29-4240-A0D8-EF976A24FDE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3821,10 +2074,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1778C5-6A21-4234-8040-63439612B5E2}"/>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2126F5B5-1AE3-414C-B3F1-370B0F43F1AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3874,10 +2127,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1D3355-6F55-4922-886C-FC8870B0B597}"/>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBA4D4D-C5D9-4169-8802-018C54B3458D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3927,10 +2180,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92788D46-C654-41E1-B2D9-28988272F6B6}"/>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9FB3FC-A2F1-4AAC-BEF1-22C960D9D89D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3980,10 +2233,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A53A47-E5DC-4A34-B6CE-F7B18C52FA24}"/>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACCBCD1-A8DB-44E0-B272-F9DA19E75B69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4033,10 +2286,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Flowchart: Process 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D314936-BCEF-4B96-8783-E7EA6245ACC8}"/>
+        <xdr:cNvPr id="36" name="Flowchart: Process 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A817190F-B0EF-47A5-8E6B-EC9166783AB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4099,10 +2352,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5CA1A8-DF16-47FE-B7F1-C2629D08EB8E}"/>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B58000AF-0706-4898-937E-9A695313DB9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4152,10 +2405,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Flowchart: Data 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE5D882-76A3-4CA1-966D-5CD986FFE0D3}"/>
+        <xdr:cNvPr id="38" name="Flowchart: Data 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A78E2E6-2EC2-4F3E-B131-E50E043E3681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4225,10 +2478,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A677831-BBC3-4948-B345-C694011A3D3D}"/>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F05A68-C457-4CF1-BEE3-790230285060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4261,12 +2514,4305 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>195968</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2AA40B-BC9D-40F8-A6C8-8ED203F261A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="1200150"/>
+          <a:ext cx="1548518" cy="524301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58ABA09-FEF2-443B-A9F7-DF5161897005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="704850"/>
+          <a:ext cx="1504950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Decision 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1A0CB2-8C51-47DF-9295-C918A4C342A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="904875"/>
+          <a:ext cx="1447800" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CE12BF-E50F-430F-BE6D-5B68A3BAE233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="2095500"/>
+          <a:ext cx="1504950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>75840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>258480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169860</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C897DFB4-5B54-45DF-B019-0D98CD7700C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1685520" y="1599840"/>
+            <a:ext cx="401760" cy="1046520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C897DFB4-5B54-45DF-B019-0D98CD7700C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1676880" y="1590840"/>
+              <a:ext cx="419400" cy="1064160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970650AA-FE95-42D7-9F8C-C1A55139791B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3876480" y="1295280"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970650AA-FE95-42D7-9F8C-C1A55139791B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3867840" y="1286280"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="33" name="Ink 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8630571-6093-4B45-AA8D-AD69D68ED30F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2314080" y="2400120"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Ink 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8630571-6093-4B45-AA8D-AD69D68ED30F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2305440" y="2391120"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Connector: Elbow 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7981C92-875B-4960-94C2-1738A40C4AAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="2905125"/>
+          <a:ext cx="1038225" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connector: Elbow 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A67DCA-AEB9-4271-9ECF-99A507D99739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1419225" y="3362325"/>
+          <a:ext cx="1047750" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Flowchart: Alternate Process 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04940753-F106-4FED-8FCE-9EBD51F4E633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="552450"/>
+          <a:ext cx="1133475" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Flowchart: Data 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DAF429-11DD-4814-9167-7F1ABAD2B7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="1581150"/>
+          <a:ext cx="1524000" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Flowchart: Process 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3670CFD2-C5EF-4783-924C-A86A8FD89424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="2990850"/>
+          <a:ext cx="1609725" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Decision 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9AE247-D759-4A29-9098-1193E3D9ADD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="1514475"/>
+          <a:ext cx="1447800" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F2573D-57BD-4A9A-BD9F-A0EB18047E34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1076325" y="1076325"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8FCF54-1D53-4D86-8D8D-F35017DBC9E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3876480" y="1295280"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8FCF54-1D53-4D86-8D8D-F35017DBC9E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3867840" y="1286280"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8991E8-5913-4502-899D-873D3E639A55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2314080" y="2400120"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8991E8-5913-4502-899D-873D3E639A55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2305440" y="2391120"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flowchart: Alternate Process 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7018C6E8-31B7-4678-B4E5-5354D65EDACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="6800850"/>
+          <a:ext cx="1133475" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flowchart: Data 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF4100C-1AB0-42DE-9303-9562633B90FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="3857626"/>
+          <a:ext cx="1524000" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flowchart: Process 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198F53CB-AE0A-45D9-BA93-1C6D79258AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571501" y="161925"/>
+          <a:ext cx="1543050" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7489979-310A-41DE-B069-B588426BD0AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1038225" y="2066925"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8EB498-4512-4D47-A0EC-4505933AA973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="4314825"/>
+          <a:ext cx="0" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Flowchart: Decision 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E09FAC2-B061-4554-AF7C-1F438A8A798E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="4695825"/>
+          <a:ext cx="1333499" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C860BE-8319-44CE-8F5D-39093B343D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1009650" y="5210175"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B544761-5129-4623-8594-7E7A9278CAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="4981575"/>
+          <a:ext cx="1000125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557D5B3A-8958-493A-9C32-2F3C13BDAD2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2486025" y="4133850"/>
+          <a:ext cx="9525" cy="847728"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1ADAC1-7320-4D2A-910B-4E02841D7303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1876426" y="3048001"/>
+          <a:ext cx="609599" cy="19049"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BBDB31-B403-4722-970A-339911CE24D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="952500" y="6381750"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Flowchart: Process 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2FAF52-9DFA-406D-8553-7D363DB4E21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="4562475"/>
+          <a:ext cx="1543050" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Flowchart: Data 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D468455-6F53-474D-816E-04B10E7AE223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="5734050"/>
+          <a:ext cx="1066800" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6110C2C-32CD-4E0D-9F92-5DDE1C9509F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="857250" y="6286500"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80700E41-6ED4-4EC3-B482-62780CD7F781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="6086475"/>
+          <a:ext cx="1504950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Decision 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D311B8-AC6A-46F3-AED7-CFB8286CFEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="2828925"/>
+          <a:ext cx="1447800" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F89310D-52C7-426E-AFCE-0638C24247C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1076325" y="1076325"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>176010</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428627</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81164</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE8D9B-2CD6-4FE8-A9ED-19EEAAA350D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm rot="16200000">
+            <a:off x="6617191" y="-283472"/>
+            <a:ext cx="781455" cy="1471817"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE8D9B-2CD6-4FE8-A9ED-19EEAAA350D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="6608188" y="-292471"/>
+              <a:ext cx="799101" cy="1489454"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEBA31A-7283-4DD1-9397-8D8C82C0AE7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3876480" y="1295280"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEBA31A-7283-4DD1-9397-8D8C82C0AE7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3867840" y="1286280"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65663BAD-C825-454D-9710-34AECE36B33B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2314080" y="2400120"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65663BAD-C825-454D-9710-34AECE36B33B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2305440" y="2391120"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connector: Elbow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D94BC40-626E-4A19-AC88-5BD7470F5239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191125" y="923925"/>
+          <a:ext cx="1038225" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Connector: Elbow 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1614D3C-0696-447D-9A49-FE84EF9E3E5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5648325" y="1562100"/>
+          <a:ext cx="1047750" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flowchart: Alternate Process 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091E580A-C490-4F4D-B731-0DFD6A0F8B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="9077325"/>
+          <a:ext cx="1133475" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flowchart: Data 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A71DFE-21EA-4E9D-AE22-46F808B7B798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="3857626"/>
+          <a:ext cx="1524000" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flowchart: Process 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EEA228-D446-4981-A608-A4B29DA0230B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571501" y="161925"/>
+          <a:ext cx="1543050" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Flowchart: Process 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652B9D43-084F-455A-BD6E-6D25A94D3457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="1714500"/>
+          <a:ext cx="1543050" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4B793-9027-444D-A025-D9AD6E840DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="2438400"/>
+          <a:ext cx="0" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD007F5C-10BB-4753-A75D-268060CE2BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1066800" y="3457575"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7074B93-E571-4F77-8A74-3FA9D9C779AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="4314825"/>
+          <a:ext cx="0" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Flowchart: Decision 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B4EC21-B114-44ED-BDAB-72A2878F92EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="4695825"/>
+          <a:ext cx="1333499" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50685E9-44B7-42D7-B20C-9FED1C74C921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1009650" y="5210175"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Flowchart: Decision 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E101A882-CCDD-4216-8C9A-FF29F621FA15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="5695950"/>
+          <a:ext cx="1447800" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A18900D-E45E-4CC9-A5AD-C8EAFFB6DBA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="4981575"/>
+          <a:ext cx="1000125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC959E1-101C-4805-81D1-31A72FF6FB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2486025" y="4133850"/>
+          <a:ext cx="9525" cy="847728"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF998312-2854-467B-AA45-43591A6A3362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1876426" y="4191000"/>
+          <a:ext cx="7877174" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Flowchart: Decision 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5E2E5A-3E93-4548-AD6D-1564153B3319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="5905500"/>
+          <a:ext cx="1447800" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Flowchart: Decision 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51B687E-DDDD-4428-B2BB-BB77FD00B460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="5819775"/>
+          <a:ext cx="1447800" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Flowchart: Data 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79897340-845E-4690-A3E4-FF0D92AB81BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="4733925"/>
+          <a:ext cx="1066800" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Flowchart: Data 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0026A48-182D-469A-A3E4-542527BCC280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="4705350"/>
+          <a:ext cx="1066800" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90035AA3-963F-42E6-9347-68E045DFC7C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4267200" y="5267325"/>
+          <a:ext cx="9525" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED70FE8-C652-4E1F-9171-C6231BDB1443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6524625" y="5257800"/>
+          <a:ext cx="0" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6FDE69-286F-473B-9899-27BE7655D469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="6096000"/>
+          <a:ext cx="1504950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E224D702-3A55-4E2E-B9DB-449CF7CA1126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="6076950"/>
+          <a:ext cx="1504950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Flowchart: Data 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8888B7-B534-4970-9603-E9D483D9C763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="5905500"/>
+          <a:ext cx="1066800" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1778C5-6A21-4234-8040-63439612B5E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9734550" y="4229100"/>
+          <a:ext cx="19050" cy="1619251"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1D3355-6F55-4922-886C-FC8870B0B597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4276725" y="4171950"/>
+          <a:ext cx="9525" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92788D46-C654-41E1-B2D9-28988272F6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6581775" y="4143375"/>
+          <a:ext cx="0" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A53A47-E5DC-4A34-B6CE-F7B18C52FA24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="952500" y="6381750"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Flowchart: Process 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D314936-BCEF-4B96-8783-E7EA6245ACC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="6848475"/>
+          <a:ext cx="1543050" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5CA1A8-DF16-47FE-B7F1-C2629D08EB8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="904875" y="7572375"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Flowchart: Data 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE5D882-76A3-4CA1-966D-5CD986FFE0D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="8020050"/>
+          <a:ext cx="1066800" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A677831-BBC3-4948-B345-C694011A3D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="847725" y="8582025"/>
+          <a:ext cx="9526" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>329318</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27701FAA-B9A1-46A2-A52C-4E3A7A2F48C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1333500"/>
+          <a:ext cx="1548518" cy="524301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-09-10T20:59:23.273"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">927 0,'-2'17,"-1"0,-2-1,0 1,-1-1,-1 0,-9 12,-17 46,16 2,5 2,5-1,4 1,11 66,-3 23,-7-85,6 96,-4-173,1 0,0 0,0-1,1 1,0 0,0-1,1 1,-1-1,1 1,1-1,-1 0,1 0,0 0,0 0,1 0,0-1,-1 0,2 1,-1-1,0-1,1 1,0 0,0-1,0 0,0 0,0 0,1-1,2 1,24 3,0-1,0 0,1-2,-1-1,21-2,-23 1,0 0,1 2,-1 0,1 2,31 10,-1 3,-1 2,29 12,-51-17,-7-2,0 2,-1 0,-2 1,0 1,-1 1,-1 1,-1 1,9 10,-3 5,-1 0,-3 2,-2 1,-2 0,-2 2,13 36,-17-27,-2 1,-4-1,-2 2,-3-1,-4 1,-2-1,-3 1,-5 6,4-42,0-1,-2 0,0 1,-2-1,1-1,-2 1,-1-1,0 0,-5 4,-105 100,101-101,-3 1,-1-1,0-1,-2 0,-1-1,0-1,-14 4,-99 54,109-52,-2-1,0-2,-1 0,-1-1,0-2,-2 0,0-2,0-1,-2-1,1-1,-34 3,-13-1,0-4,0-2,-1-2,-70-8,142 6,0 0,0 1,0 0,-1 0,1 1,0 0,0 1,0 0,1 0,-1 1,-9 2,16-2,1-1,-1 1,0 0,1 0,0 0,0 0,0 0,1 1,-1-1,1 1,0 0,1 0,-1 0,1 0,0 0,0 0,1 0,0 0,0 1,0-1,1 0,0 1,0-1,1 3,16 522,-22-339,0-39,16 104,-3-224,3-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 3760,'8'1,"1"1,-1 1,-1-1,1 1,0 0,-1 0,0 1,0-1,-1 1,1 0,-1 1,0 0,18 9,86 49,-4 4,17 19,-98-51,-10-14,-14-21,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1 0,0-1,0 0,0 1,-1-1,1 1,0-1,-1 0,1 1,0-1,-1 0,0 0,1 1,-1-1,1 0,28-29,-6 3,1 2,1 1,3 0,0 1,2 1,1 1,2 1,20-9,8 0,-1-1,-2-3,-3-1,33-27,-52 34</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">517 2754</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-09-03T18:20:31.682"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-09-03T18:20:31.683"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-09-10T20:59:23.276"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-09-10T20:59:23.277"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4294,7 +6840,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4320,7 +6866,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4346,7 +6892,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4372,7 +6918,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4398,7 +6944,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4423,58 +6969,6 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">927 0,'-2'17,"-1"0,-2-1,0 1,-1-1,-1 0,-9 12,-17 46,16 2,5 2,5-1,4 1,11 66,-3 23,-7-85,6 96,-4-173,1 0,0 0,0-1,1 1,0 0,0-1,1 1,-1-1,1 1,1-1,-1 0,1 0,0 0,0 0,1 0,0-1,-1 0,2 1,-1-1,0-1,1 1,0 0,0-1,0 0,0 0,0 0,1-1,2 1,24 3,0-1,0 0,1-2,-1-1,21-2,-23 1,0 0,1 2,-1 0,1 2,31 10,-1 3,-1 2,29 12,-51-17,-7-2,0 2,-1 0,-2 1,0 1,-1 1,-1 1,-1 1,9 10,-3 5,-1 0,-3 2,-2 1,-2 0,-2 2,13 36,-17-27,-2 1,-4-1,-2 2,-3-1,-4 1,-2-1,-3 1,-5 6,4-42,0-1,-2 0,0 1,-2-1,1-1,-2 1,-1-1,0 0,-5 4,-105 100,101-101,-3 1,-1-1,0-1,-2 0,-1-1,0-1,-14 4,-99 54,109-52,-2-1,0-2,-1 0,-1-1,0-2,-2 0,0-2,0-1,-2-1,1-1,-34 3,-13-1,0-4,0-2,-1-2,-70-8,142 6,0 0,0 1,0 0,-1 0,1 1,0 0,0 1,0 0,1 0,-1 1,-9 2,16-2,1-1,-1 1,0 0,1 0,0 0,0 0,0 0,1 1,-1-1,1 1,0 0,1 0,-1 0,1 0,0 0,0 0,1 0,0 0,0 1,0-1,1 0,0 1,0-1,1 3,16 522,-22-339,0-39,16 104,-3-224,3-8</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 3760,'8'1,"1"1,-1 1,-1-1,1 1,0 0,-1 0,0 1,0-1,-1 1,1 0,-1 1,0 0,18 9,86 49,-4 4,17 19,-98-51,-10-14,-14-21,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1 0,0-1,0 0,0 1,-1-1,1 1,0-1,-1 0,1 1,0-1,-1 0,0 0,1 1,-1-1,1 0,28-29,-6 3,1 2,1 1,3 0,0 1,2 1,1 1,2 1,20-9,8 0,-1-1,-2-3,-3-1,33-27,-52 34</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">517 2754</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2018-09-03T18:20:31.682"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2018-09-03T18:20:31.683"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4774,6 +7268,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AEE9EC-46D2-4B43-A887-1F6B133C0D4E}">
+  <dimension ref="B2:P49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE0C725-C8C0-4766-96FE-7115690AD7EA}">
   <dimension ref="F4:L19"/>
   <sheetViews>
@@ -4843,11 +7513,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AD2E7E-58AF-4A4D-88ED-01776309C3F4}">
   <dimension ref="B2:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -4929,154 +7599,6 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2C5DB7-667D-4B45-8F96-6549100ED6CE}">
-  <dimension ref="B2:P49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="N33" t="b">
-        <v>0</v>
-      </c>
-      <c r="P33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5088,6 +7610,157 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2C5DB7-667D-4B45-8F96-6549100ED6CE}">
+  <dimension ref="B2:P49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7376340C-4DB9-4AD2-924F-7E3097557859}">
   <dimension ref="A1"/>
   <sheetViews>
